--- a/environhub/stubbleburning.xlsx
+++ b/environhub/stubbleburning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9480" windowWidth="7367" windowHeight="5340"/>
+    <workbookView windowWidth="22943" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Stubble burning is intentionally setting fire to the straw stubble that remains after wheat and other grains have been harvested. The practice was widespread until the 1990s, when governments increasingly restricted its use. Stubble burning in Punjab and Haryana in northwest India has been cited as a major cause of air pollution in Delhi. In late September and October each year, farmers mainly in those two states burn an estimated 35 million tons of crop waste from their wheat fields after harvesting, as a low-cost straw-disposal practice to reduce the turnaround time between harvesting and sowing for the second (winter) crop. Smoke from this burning produces a cloud of particulates visible from space, and has produced a "toxic cloud" in New Delhi, resulting in declarations of an air-pollution emergency. </t>
     </r>
     <r>
@@ -82,16 +88,13 @@
     </r>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Event Type</t>
   </si>
   <si>
     <t>Event Description</t>
   </si>
   <si>
-    <t>15 October 2018 , 11:30AM</t>
+    <t>Time</t>
   </si>
   <si>
     <t>Political intervention</t>
@@ -100,6 +103,9 @@
     <t>Jagtar Singh, a leader of Bhartiya Kisan Union (Ekta-Ugrahan) steps out of the vehicle along with five other farmers. He picks up a microphone and starts addressing a small gathering.
 “The decision of banning crop residue burning is unjustifiable and makes us poorer,” says Singh. He further urges farmers to unite against this anti-farmer move of the state and Union governments that has been forcing farmers to buy costly new machines. After his 10-minute-long speech, more than two dozens of farmers, moved towards a field and set off fire in paddy straw.
 “It is our non-violent protest against this anti-farmer government. We all farmers are ready to get arrested,” Singh tells Down To Earth.</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
   </si>
   <si>
     <t>Court judgement</t>
@@ -294,14 +300,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="179" formatCode="d\ mmmm\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m"/>
-    <numFmt numFmtId="179" formatCode="d\ mmmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="yyyy\-m"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -376,9 +382,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,86 +428,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +451,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,29 +520,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,12 +565,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -577,19 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,37 +607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,13 +649,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,31 +721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +750,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -762,11 +794,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,49 +836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,167 +845,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,14 +1015,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1342,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1358,7 +1377,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2375,8 +2394,8 @@
   <sheetPr/>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2402,59 +2421,59 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A3" s="13">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15">
         <v>42313</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A5" s="16">
-        <v>42979</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="19">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:3">
-      <c r="A6" s="13">
-        <v>43286</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C7" s="18"/>
+      <c r="C6" s="15">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" spans="2:2">
+      <c r="B7" s="21"/>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
@@ -2466,11 +2485,21 @@
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A21" s="19"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A22" s="15"/>
+    </row>
     <row r="23" ht="12.75" customHeight="1"/>
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1"/>
@@ -5870,7 +5899,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
